--- a/병원수_통계합.xlsx
+++ b/병원수_통계합.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/443ae5d4b5680dee/문서/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AA1F79-F024-4D17-9CFD-92F0671F9BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203E0123-91ED-4406-86B8-ED0701B4C099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{197F4D3E-1EBC-4D8C-8DFC-19FBDE4FF02A}"/>
+    <workbookView xWindow="816" yWindow="300" windowWidth="17280" windowHeight="11940" xr2:uid="{197F4D3E-1EBC-4D8C-8DFC-19FBDE4FF02A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -87,19 +87,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충정남도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>충정북도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>병원수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청남도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충청북도</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +471,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -481,10 +481,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -609,7 +609,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B17">
         <v>2771</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B18">
         <v>1781</v>
